--- a/dtpu_configurations/only_integer16/30mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_6x6/power.xlsx
@@ -128,7 +128,7 @@
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
     <col min="6" max="6" width="10.3125" customWidth="true"/>
-    <col min="7" max="7" width="8.75" customWidth="true"/>
+    <col min="7" max="7" width="10.3125" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
     <col min="10" max="10" width="11.25" customWidth="true"/>
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.012804782949388027</v>
+        <v>0.012938038446009159</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005300404038280249</v>
+        <v>0.005492222495377064</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004190673585981131</v>
+        <v>0.003975825384259224</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0029193121008574963</v>
+        <v>0.004187582992017269</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.6724537999834865E-5</v>
+        <v>7.586106949020177E-5</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0010562879033386707</v>
+        <v>9.153182036243379E-4</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12673160433769226</v>
+        <v>0.12725237011909485</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4112038612365723</v>
+        <v>1.413002371788025</v>
       </c>
     </row>
   </sheetData>
